--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,126 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\Element\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D19F37C-3210-4486-8290-974218BF25F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>HTML Element Block Level</t>
-  </si>
-  <si>
-    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-  </si>
-  <si>
-    <t>Takes only the space it needs (&lt;a&gt;)</t>
-  </si>
-  <si>
-    <t>HTML Element Inline Level</t>
-  </si>
-  <si>
-    <t>HTML Block Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>15/12/20</t>
-  </si>
-  <si>
-    <t>HTML Inline Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is an Inline Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is an Inline Level Tag</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>YesNo</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -234,60 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -553,262 +529,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.19921875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="11" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="8" width="6.296875"/>
+    <col customWidth="1" max="4" min="4" style="8" width="2.19921875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="25.69921875"/>
+    <col customWidth="1" max="7" min="7" style="5" width="17.69921875"/>
+    <col customWidth="1" max="8" min="8" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Block Level</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Inline Level</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>HTML Block Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>HTML Inline Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>44054</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>44054</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11">
-        <v>43932</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>44054</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="11">
-        <v>44054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="11">
-        <v>44054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11">
-        <v>44054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="11">
-        <v>44054</v>
-      </c>
-    </row>
+    <row r="10"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,26 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="8" width="6.296875"/>
-    <col customWidth="1" max="4" min="4" style="8" width="2.19921875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="25.69921875"/>
-    <col customWidth="1" max="7" min="7" style="5" width="17.69921875"/>
-    <col customWidth="1" max="8" min="8" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -566,36 +497,31 @@
       </c>
       <c r="C1" s="7" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
           <t>P</t>
         </is>
       </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
       <c r="E1" s="4" t="inlineStr">
         <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
           <t>Right Answer</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>Wrong Answer</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Date Created</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -604,34 +530,29 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Block Level</t>
+        </is>
+      </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>HTML Element Block Level</t>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
           <t>Takes only the space it needs (&lt;a&gt;)</t>
         </is>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -640,34 +561,29 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Inline Level</t>
+        </is>
+      </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>HTML Element Inline Level</t>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
           <t>Occupies 100% of the available width (&lt;p&gt;)</t>
         </is>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -676,36 +592,31 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>HTML Block Level is rendered with a line break before and after</t>
+        </is>
+      </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>HTML Block Level is rendered with a line break before and after</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>15/12/20</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -714,36 +625,31 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>HTML Inline Level is rendered with a line break before and after</t>
         </is>
       </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>15/12/20</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -752,34 +658,29 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>&lt;p&gt; is a Block Level Tag</t>
         </is>
       </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F6" s="9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="G6" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -788,30 +689,25 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>&lt;p&gt; is an Inline Level Tag</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="G7" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
@@ -824,30 +720,25 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is a Block Level Tag</t>
+        </is>
+      </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt; is a Block Level Tag</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="G8" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
@@ -860,36 +751,31 @@
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>&lt;b&gt; is an Inline Level Tag</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
     <row r="10"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,21 +13,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HTML Element Block Level</t>
+  </si>
+  <si>
+    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+  </si>
+  <si>
+    <t>Takes only the space it needs (&lt;a&gt;)</t>
+  </si>
+  <si>
+    <t>HTML Element Inline Level</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML Block Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>15/12/20</t>
+  </si>
+  <si>
+    <t>HTML Inline Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is an Inline Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is an Inline Level Tag</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -151,119 +225,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -536,314 +542,232 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="C10" pane="bottomLeft" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.1796875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.65" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Block Level</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Inline Level</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>HTML Block Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.65" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>HTML Inline Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.65" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,84 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HTML Element Block Level</t>
-  </si>
-  <si>
-    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-  </si>
-  <si>
-    <t>Takes only the space it needs (&lt;a&gt;)</t>
-  </si>
-  <si>
-    <t>HTML Element Inline Level</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML Block Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>15/12/20</t>
-  </si>
-  <si>
-    <t>HTML Inline Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is an Inline Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is an Inline Level Tag</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -225,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -542,232 +468,314 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="C10" pane="bottomLeft" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.1796875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.1796875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Block Level</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Inline Level</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
       </c>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>HTML Block Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>HTML Inline Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G6" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="7" spans="1:7">
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G7" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G8" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="10" spans="1:7"/>
+    <row r="10"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="C10" pane="bottomLeft" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.1796875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.1796875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,9 +589,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -552,9 +620,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -583,9 +651,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -616,9 +684,9 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -649,9 +717,9 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>314</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -680,9 +748,9 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -713,7 +781,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -744,7 +812,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>317</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -775,7 +843,7 @@
     </row>
     <row r="10"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,23 +468,23 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="C10" pane="bottomLeft" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.1796875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.1796875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="2">
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -651,7 +583,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>312</v>
       </c>
@@ -684,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>313</v>
       </c>
@@ -717,7 +649,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="6">
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>314</v>
       </c>
@@ -748,7 +680,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="7">
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>315</v>
       </c>
@@ -843,7 +775,7 @@
     </row>
     <row r="10"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="C10" pane="bottomLeft" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.1796875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.1796875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +651,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
         <v>312</v>
       </c>
@@ -616,7 +684,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
         <v>313</v>
       </c>
@@ -649,7 +717,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
         <v>314</v>
       </c>
@@ -680,7 +748,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7">
       <c r="A7" s="3" t="n">
         <v>315</v>
       </c>
@@ -773,9 +841,8 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
@@ -841,6 +841,7 @@
         <v>44054</v>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="C10" pane="bottomLeft" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.1796875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.1796875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +651,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
         <v>312</v>
       </c>
@@ -616,7 +684,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
         <v>313</v>
       </c>
@@ -649,7 +717,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
         <v>314</v>
       </c>
@@ -680,7 +748,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7">
       <c r="A7" s="3" t="n">
         <v>315</v>
       </c>
@@ -775,7 +843,7 @@
     </row>
     <row r="10"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="C10" pane="bottomLeft" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.1796875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.1796875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="2">
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -651,7 +583,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>312</v>
       </c>
@@ -684,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>313</v>
       </c>
@@ -717,7 +649,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="6">
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>314</v>
       </c>
@@ -748,7 +680,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="7">
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>315</v>
       </c>
@@ -841,8 +773,9 @@
         <v>44054</v>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,14 +20,14 @@
   </numFmts>
   <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -466,22 +466,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.1796875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -521,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +583,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>312</v>
       </c>
@@ -616,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>313</v>
       </c>
@@ -649,12 +649,12 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>314</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
@@ -680,12 +680,12 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>315</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>316</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>317</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
@@ -773,7 +773,203 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>385</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>386</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>&lt;div&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>387</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>388</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>&lt;li&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>389</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>&lt;a&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>390</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>391</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>&lt;img&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C7" pane="bottomLeft" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,168 +651,162 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="A4" s="3" t="n">
+    <row customHeight="1" ht="27.6" r="4">
+      <c r="A4" t="n">
+        <v>408</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Block Level o***** 100% of the available width</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>occupies</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5">
+      <c r="A5" t="n">
+        <v>409</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Block Level occupies 100% of the a***** width</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6">
+      <c r="A6" t="n">
+        <v>410</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Block Level occupies 100% of the available w*****</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7">
+      <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>HTML Block Level is rendered with a line break before and after</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>15/12/20</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" s="3" t="n">
+    <row customHeight="1" ht="27.6" r="8">
+      <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>HTML Inline Level is rendered with a line break before and after</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>15/12/20</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
-      <c r="A6" s="3" t="n">
+    <row customHeight="1" ht="27.6" r="9">
+      <c r="A9" s="3" t="n">
         <v>314</v>
-      </c>
-      <c r="B6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>44054</v>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
-      <c r="A7" s="3" t="n">
-        <v>315</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>44054</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>316</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="n">
-        <v>44054</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>317</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
@@ -754,17 +816,17 @@
           <t>C</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -773,68 +835,74 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>385</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
+    <row customHeight="1" ht="27.6" r="10">
+      <c r="A10" s="3" t="n">
+        <v>315</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; = ***** level tag</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>44054</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>386</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="A11" s="3" t="n">
+        <v>316</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>&lt;div&gt; = ***** level tag</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>44054</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>387</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
+      <c r="A12" s="3" t="n">
+        <v>317</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
@@ -843,23 +911,26 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>&lt;h1&gt; = ***** level tag</t>
+          <t>&lt;b&gt; is an Inline Level Tag</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>44054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -871,7 +942,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>&lt;li&gt; = ***** level tag</t>
+          <t>&lt;p&gt; = ***** level tag</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -887,7 +958,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -899,12 +970,12 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>&lt;a&gt; = ***** level tag</t>
+          <t>&lt;div&gt; = ***** level tag</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>inline</t>
+          <t>block</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -915,7 +986,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -927,12 +998,12 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>&lt;b&gt; = ***** level tag</t>
+          <t>&lt;h1&gt; = ***** level tag</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>inline</t>
+          <t>block</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -943,35 +1014,118 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>388</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>&lt;li&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>&lt;a&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>390</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; = ***** level tag</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>391</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>&lt;img&gt; = ***** level tag</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>inline</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>200503</t>
         </is>
       </c>
     </row>
-    <row r="17"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C7" pane="bottomLeft" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -651,7 +583,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -680,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -709,7 +641,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -738,7 +670,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -771,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -804,7 +736,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -835,7 +767,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1124,8 +1056,9 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C7" pane="bottomLeft" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +651,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -612,7 +680,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -641,7 +709,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -670,7 +738,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -703,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -736,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -767,7 +835,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1056,9 +1124,8 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +651,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -612,7 +680,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -641,7 +709,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -670,7 +738,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -703,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -736,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -767,7 +835,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -874,7 +942,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>&lt;p&gt; = ***** level tag</t>
+          <t>&lt;p&gt; = (block | inline) ***** level tag</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -902,7 +970,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>&lt;div&gt; = ***** level tag</t>
+          <t>&lt;div&gt; = (block | inline) ***** level tag</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -930,7 +998,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>&lt;h1&gt; = ***** level tag</t>
+          <t>&lt;h1&gt; = (block | inline) ***** level tag</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -958,7 +1026,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>&lt;li&gt; = ***** level tag</t>
+          <t>&lt;li&gt; = (block | inline) ***** level tag</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -986,7 +1054,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>&lt;a&gt; = ***** level tag</t>
+          <t>&lt;a&gt; = (block | inline) ***** level tag</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1014,7 +1082,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>&lt;b&gt; = ***** level tag</t>
+          <t>&lt;b&gt; = (block | inline) ***** level tag</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1042,7 +1110,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>&lt;img&gt; = ***** level tag</t>
+          <t>&lt;img&gt; = (block | inline) ***** level tag</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1056,9 +1124,8 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -651,7 +583,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -680,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -709,7 +641,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -738,7 +670,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -771,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -804,7 +736,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -835,7 +767,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1124,8 +1056,9 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,135 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HTML Element Block Level</t>
+  </si>
+  <si>
+    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+  </si>
+  <si>
+    <t>Takes only the space it needs (&lt;a&gt;)</t>
+  </si>
+  <si>
+    <t>HTML Element Inline Level</t>
+  </si>
+  <si>
+    <t>Block Level o***** 100% of the available width</t>
+  </si>
+  <si>
+    <t>occupies</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Block Level occupies 100% of the a***** width</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>Block Level occupies 100% of the available w*****</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML Block Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>15/12/20</t>
+  </si>
+  <si>
+    <t>HTML Inline Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is an Inline Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is an Inline Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; = (block | inline) ***** level tag</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>&lt;div&gt; = (block | inline) ***** level tag</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; = (block | inline) ***** level tag</t>
+  </si>
+  <si>
+    <t>&lt;li&gt; = (block | inline) ***** level tag</t>
+  </si>
+  <si>
+    <t>&lt;a&gt; = (block | inline) ***** level tag</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; = (block | inline) ***** level tag</t>
+  </si>
+  <si>
+    <t>&lt;img&gt; = (block | inline) ***** level tag</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +276,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -468,597 +593,435 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Block Level</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Inline Level</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>408</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Block Level o***** 100% of the available width</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>occupies</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>409</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Block Level occupies 100% of the a***** width</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>410</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Block Level occupies 100% of the available w*****</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>HTML Block Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>HTML Inline Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>316</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G11" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>317</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" t="n">
         <v>385</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; = (block | inline) ***** level tag</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="n">
         <v>386</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>&lt;div&gt; = (block | inline) ***** level tag</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="n">
         <v>387</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt; = (block | inline) ***** level tag</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="n">
         <v>388</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>&lt;li&gt; = (block | inline) ***** level tag</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="n">
         <v>389</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>&lt;a&gt; = (block | inline) ***** level tag</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="n">
         <v>390</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; = (block | inline) ***** level tag</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>391</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>&lt;img&gt; = (block | inline) ***** level tag</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,135 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HTML Element Block Level</t>
-  </si>
-  <si>
-    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-  </si>
-  <si>
-    <t>Takes only the space it needs (&lt;a&gt;)</t>
-  </si>
-  <si>
-    <t>HTML Element Inline Level</t>
-  </si>
-  <si>
-    <t>Block Level o***** 100% of the available width</t>
-  </si>
-  <si>
-    <t>occupies</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>Block Level occupies 100% of the a***** width</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>Block Level occupies 100% of the available w*****</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML Block Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>15/12/20</t>
-  </si>
-  <si>
-    <t>HTML Inline Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is an Inline Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is an Inline Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; = (block | inline) ***** level tag</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>&lt;div&gt; = (block | inline) ***** level tag</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt; = (block | inline) ***** level tag</t>
-  </si>
-  <si>
-    <t>&lt;li&gt; = (block | inline) ***** level tag</t>
-  </si>
-  <si>
-    <t>&lt;a&gt; = (block | inline) ***** level tag</t>
-  </si>
-  <si>
-    <t>inline</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; = (block | inline) ***** level tag</t>
-  </si>
-  <si>
-    <t>&lt;img&gt; = (block | inline) ***** level tag</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -276,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -593,435 +468,597 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Block Level</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Inline Level</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
       </c>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>408</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Block Level o***** 100% of the available width</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>occupies</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>409</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Block Level occupies 100% of the a***** width</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>410</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Block Level occupies 100% of the available w*****</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>HTML Block Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>HTML Inline Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>22</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G10" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" s="3" t="n">
         <v>316</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G11" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" s="3" t="n">
         <v>317</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G12" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" t="n">
         <v>385</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
         <v>386</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>&lt;div&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
         <v>387</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="n">
         <v>388</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>&lt;li&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>389</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>&lt;a&gt; = i**** level tag</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>390</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; = i**** level tag</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>391</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7"/>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>&lt;img&gt; = i**** level tag</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +651,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -612,7 +680,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -641,7 +709,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -670,7 +738,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -703,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -736,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -767,7 +835,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1056,9 +1124,8 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,135 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HTML Element Block Level</t>
+  </si>
+  <si>
+    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+  </si>
+  <si>
+    <t>Takes only the space it needs (&lt;a&gt;)</t>
+  </si>
+  <si>
+    <t>HTML Element Inline Level</t>
+  </si>
+  <si>
+    <t>Block Level o***** 100% of the available width</t>
+  </si>
+  <si>
+    <t>occupies</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Block Level occupies 100% of the a***** width</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>Block Level occupies 100% of the available w*****</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML Block Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>15/12/20</t>
+  </si>
+  <si>
+    <t>HTML Inline Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is an Inline Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is an Inline Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>&lt;div&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;li&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;a&gt; = i**** level tag</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; = i**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;img&gt; = i**** level tag</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +276,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -468,597 +593,435 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Block Level</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Inline Level</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>408</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Block Level o***** 100% of the available width</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>occupies</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>409</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Block Level occupies 100% of the a***** width</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>410</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Block Level occupies 100% of the available w*****</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>HTML Block Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>HTML Inline Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>316</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G11" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>317</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" t="n">
         <v>385</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="n">
         <v>386</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>&lt;div&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="n">
         <v>387</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="n">
         <v>388</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>&lt;li&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="n">
         <v>389</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>&lt;a&gt; = i**** level tag</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="n">
         <v>390</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; = i**** level tag</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>391</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>&lt;img&gt; = i**** level tag</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +651,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -612,7 +680,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -641,7 +709,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -670,7 +738,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -703,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -736,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -767,7 +835,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1058,7 +1126,7 @@
     </row>
     <row r="20"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,23 +468,23 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -651,7 +583,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -680,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -709,7 +641,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -738,7 +670,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -771,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -804,7 +736,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -835,7 +767,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1126,7 +1058,7 @@
     </row>
     <row r="20"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="B20" pane="bottomLeft" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -583,7 +651,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -612,7 +680,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -641,7 +709,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -670,7 +738,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -703,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -736,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -767,7 +835,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1056,9 +1124,8 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="B20" pane="bottomLeft" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
@@ -651,7 +583,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>408</v>
       </c>
@@ -680,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>409</v>
       </c>
@@ -709,7 +641,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>410</v>
       </c>
@@ -738,7 +670,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
@@ -771,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
@@ -804,7 +736,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
@@ -835,7 +767,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
@@ -1124,8 +1056,9 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1056,7 +1124,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1124,6 +1056,7 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,135 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HTML Element Block Level</t>
+  </si>
+  <si>
+    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+  </si>
+  <si>
+    <t>Takes only the space it needs (&lt;a&gt;)</t>
+  </si>
+  <si>
+    <t>HTML Element Inline Level</t>
+  </si>
+  <si>
+    <t>Block Level o***** 100% of the available width</t>
+  </si>
+  <si>
+    <t>occupies</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Block Level occupies 100% of the a***** width</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>Block Level occupies 100% of the available w*****</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML Block Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>15/12/20</t>
+  </si>
+  <si>
+    <t>HTML Inline Level is rendered with a line break before and after</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; is an Inline Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is a Block Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; is an Inline Level Tag</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>&lt;div&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;li&gt; = b**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;a&gt; = i**** level tag</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; = i**** level tag</t>
+  </si>
+  <si>
+    <t>&lt;img&gt; = i**** level tag</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +276,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -468,597 +593,435 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="B20" pane="bottomLeft" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Block Level</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>HTML Element Inline Level</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>408</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Block Level o***** 100% of the available width</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>occupies</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>409</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Block Level occupies 100% of the a***** width</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>410</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Block Level occupies 100% of the available w*****</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>HTML Block Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>HTML Inline Level is rendered with a line break before and after</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>316</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G11" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>317</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; is an Inline Level Tag</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" t="n">
         <v>385</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="n">
         <v>386</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>&lt;div&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="n">
         <v>387</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="n">
         <v>388</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>&lt;li&gt; = b**** level tag</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="n">
         <v>389</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>&lt;a&gt; = i**** level tag</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="n">
         <v>390</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt; = i**** level tag</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>391</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>&lt;img&gt; = i**** level tag</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>inline</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,135 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HTML Element Block Level</t>
-  </si>
-  <si>
-    <t>Occupies 100% of the available width (&lt;p&gt;)</t>
-  </si>
-  <si>
-    <t>Takes only the space it needs (&lt;a&gt;)</t>
-  </si>
-  <si>
-    <t>HTML Element Inline Level</t>
-  </si>
-  <si>
-    <t>Block Level o***** 100% of the available width</t>
-  </si>
-  <si>
-    <t>occupies</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>Block Level occupies 100% of the a***** width</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>Block Level occupies 100% of the available w*****</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML Block Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>15/12/20</t>
-  </si>
-  <si>
-    <t>HTML Inline Level is rendered with a line break before and after</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; is an Inline Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is a Block Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; is an Inline Level Tag</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; = b**** level tag</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>&lt;div&gt; = b**** level tag</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt; = b**** level tag</t>
-  </si>
-  <si>
-    <t>&lt;li&gt; = b**** level tag</t>
-  </si>
-  <si>
-    <t>&lt;a&gt; = i**** level tag</t>
-  </si>
-  <si>
-    <t>inline</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; = i**** level tag</t>
-  </si>
-  <si>
-    <t>&lt;img&gt; = i**** level tag</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -276,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -593,435 +468,597 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="B20" pane="bottomLeft" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>310</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Block Level</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>311</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>HTML Element Inline Level</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
       </c>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>408</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Block Level o***** 100% of the available width</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>occupies</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>409</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Block Level occupies 100% of the a***** width</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>410</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Block Level occupies 100% of the available w*****</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>312</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>HTML Block Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>313</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>HTML Inline Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>314</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>22</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>315</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G10" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" s="3" t="n">
         <v>316</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is a Block Level Tag</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G11" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" s="3" t="n">
         <v>317</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; is an Inline Level Tag</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G12" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" t="n">
         <v>385</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
         <v>386</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>&lt;div&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
         <v>387</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="n">
         <v>388</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>&lt;li&gt; = b**** level tag</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>389</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>&lt;a&gt; = i**** level tag</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>390</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt; = i**** level tag</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>391</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7"/>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>&lt;img&gt; = i**** level tag</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>inline</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -597,7 +665,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Block Level o***** 100% of the available width</t>
+          <t>Block Level o********* 100% of the available width</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -626,7 +694,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Block Level occupies 100% of the a***** width</t>
+          <t>Block Level occupies 100% of the a************** width</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -655,7 +723,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Block Level occupies 100% of the available w*****</t>
+          <t>Block Level occupies 100% of the available w****</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">

--- a/Questions/Programming Language/Html/Element/Level.xlsx
+++ b/Questions/Programming Language/Html/Element/Level.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -665,7 +597,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Block Level o********* 100% of the available width</t>
+          <t>Block Level o***** 100% of the available width</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -694,7 +626,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Block Level occupies 100% of the a************** width</t>
+          <t>Block Level occupies 100% of the a***** width</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
